--- a/Taxonomy/evaluation/post_sentences.xlsx
+++ b/Taxonomy/evaluation/post_sentences.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>But it doesn't appear to ever start.</t>
+          <t>This is the error I am getting: -CODE-.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>How to install msi package in the github-actions step on windows?</t>
+          <t>Error, access denied for user 'root'@'localhost' (using password: YES).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The other doesn't work as well, that's why I tried to use the -CODE- option.</t>
+          <t>I wrote a bash script that runs fine locally, but breaks in Github Actions.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>--remote-debugging-address=0.0.0.0</t>
+          <t>The goal is the Action consumer to use a different docker container tag, if he desires.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>When I try to switch projects via -CODE- it errors with the error: -CODE-.</t>
+          <t>increment version.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -522,7 +522,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>I wondered if anyone has a working example of a YAML script that can be executed using github actions to essentially carry out the following: Installs NSIS onto the GitHub runner machine (not sure if this.</t>
+          <t>Now I'm switching to GitHub Actions, and I want to use my .env files and declare them into the -CODE- section of the github actions yml.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -533,7 +533,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Python SQLite3 fails on Github Actions but not on local</t>
+          <t>Firebase deploy in Github Actions gives Authorization failed error</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>This line is executed a few times in diferent tests succesfully, but then it fails in the rest of the tests (Always the same tests fail) with the next error.</t>
+          <t>I've looked into adding extra headers with cy.visit and cy.request but thry only administer the extra header on the initial request.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Do I set wrong path?</t>
+          <t>When I try to switch projects via -CODE- it errors with the error: -CODE-.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>How can I access the build log information in terminal without going to github.com?</t>
+          <t>Thanks in advance.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -577,7 +577,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>For example,.</t>
+          <t>How to target container in GitHub actions?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>But when I write -CODE- to file using -CODE-, it takes the -CODE- convention, i.e.,.</t>
+          <t>Can anyone provide clarity on the meaning of the -CODE- switch and perhaps a link to some documentation on it?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Where can I refer to the list of possible -CODE- names?</t>
+          <t>I am attempting to setup Github actions runner on my Ubuntu VPS and on step 3 where I have to set up the config.sh file, I get the error as : -CODE- and the process fails there.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -610,7 +610,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GitHub actions is naming the container some arbitrary string.</t>
+          <t>Apparently there is some problem with jq even it seems to be exactly like in example(-LINK-): -CODE-.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>We are actually moving our repos to github and we want to use github actions for our pipelines, also our testautomation framework based on WebdriverIO.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The project builds fine on my local machine.</t>
+          <t>Unexpected bash readable test result with GitHub Actions</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The article does not help.</t>
+          <t>If I understand the process well, an -CODE- is mounted each time to run the jobs ?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>When it gets to the -CODE- step, the invocation creates an error: -CODE-.</t>
+          <t>To speed up the build, I have enabled the build cache in GitHub Actions, as detailed -LINK-.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I just assumed that I had to be careful not to accept pull requests from unknown provenance.</t>
+          <t>The token has the -CODE- scope, so it has complete access to repositories.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>My root account is password protected though and I do not understand what is the issue here.</t>
+          <t>Is there any way to use the entrypoint provided by the image without creating a Docker container action?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -687,7 +687,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>npm ERR!</t>
+          <t>UPDATE Two more things I tried: Specifying the -CODE- script as -LINK-: -CODE-, but got an error.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I tried the following ways at first: Executing the tests using the chromedriver directly on ubuntu-latest image occurs an error: -CODE-.</t>
+          <t>Now the library was linking properly (or so it seems), but now it couldn't find some exported symbols.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Github actions is installing Boto3 successfully but script is executing with following error: error: -CODE-.</t>
+          <t>Is it possible to build GH action within repo A, to detect changes in repo B and pull from there?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -720,7 +720,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Can you have multiple working directories with github actions?</t>
+          <t>do i have to install npm (or some source) to make this work on github actions?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -731,7 +731,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>What is the lightest linux environment can you mount in GitHub actions</t>
+          <t>I Just switched to parallel tests in Mocha which works great, however, when I'm running it on github, it doesn't appear to be running in parallel.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Can anyone please help me through this issue.</t>
+          <t>Best regards.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>I know that I can split them up into separate repositories and solve it that way, but I am looking for a solution where I don't have to do that.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>My workflow looks like this.</t>
+          <t>As soon as I pushed it to github.com, my github action fails.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -775,7 +775,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>in official docs it says the same path and locally i can build apk successfully (on windows machine).</t>
+          <t>Is there an issue in regards to that when using Github actions?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -786,7 +786,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>here is my -LINK-.</t>
+          <t>What am I doing wrong and how would you go about doing this using github actions ?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-CODE-</t>
+          <t>Set up Python 3.7: -CODE-.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GitHub Actions Docker build and push failed to copy: unexpected status: 413 Request Entity Too Large</t>
+          <t>Create a virtual environment: -CODE-.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -819,7 +819,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>it seems like the unzip worked..but i'm getting hung up on the tag: -CODE-.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -830,7 +830,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>But it didn't help me.</t>
+          <t>i've tried every combination, and it won't work...so, i'm thinking maybe it didnt unzip right??</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Best regards.</t>
+          <t>Nuxt Fatal Error starting nuxt in GitHub Actions</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>I know that I can split them up into separate repositories and solve it that way, but I am looking for a solution where I don't have to do that.</t>
+          <t>I'm receiving a Nuxt Fatal error that I can't seem to figure out from reading the stack when building the app.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>But i have an issue every time i tried to tag a commit to trigger the pipeline, it fails at the part of committing the kustomize.yaml with this error.</t>
+          <t>The emulator runs, but the test cases fail.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>What do I need to change to make sure that my playbook runs in GitHub actions?</t>
+          <t>The problem seems to be for the job "unit_test" (-CODE-).</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -885,7 +885,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>However when I run -CODE- in github actions, it installs the dependencies but never shows that line where it installed the current project.</t>
+          <t>running tests on github actions with FastAPI fails due to it trying to connect to hosted DB first</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -896,7 +896,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Here is my /etc/ssh/sshd_config on the docker droplet on digital ocean.</t>
+          <t>I'm switching a python project over to poetry for dependency and packaging management, and am running into issues getting my github actions unit tests working.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>I'm new to Github Actions -- should I be running something before the clone command?</t>
+          <t>Any help would be much appreciated!</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -918,7 +918,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>What am I missing?</t>
+          <t>GitHub Actions: workflow never ends</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -929,7 +929,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>I've been getting up-to-speed on using Docker within GitHub Actions, and I keep running across code like this: -CODE-.</t>
+          <t>Actually, I'd prefer an alternative approach where the whole thing is inside the same repository, but I don't know if it's possible to show something (the built page) in Github Pages without committing them.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -940,7 +940,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The step Get deployment URL fails with an environment is null error.</t>
+          <t>Also, I would like the cloned repository to be set as private.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The "strange" thing is that sometimes the test passes and sometimes it doesn't.</t>
+          <t>The -CODE- looks like this: -CODE-.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>How to fix this workflow issue "there is no POM in this directory" in GitHub Actions?</t>
+          <t>The "strange" thing is that sometimes the test passes and sometimes it doesn't.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -973,7 +973,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>I was trying apply the concept of calling reusable workflows.</t>
+          <t>My deploy.yaml workflow looks identical to the one in the above link, only with the correct environment variables substituted.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -984,7 +984,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>I've already pushed images to the repository locally and it works, so I don't think anything is wrong on the AWS side of things.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -995,7 +995,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>So, i have tried different versions of this, but i still cannot get it right.</t>
+          <t>'set-env' error when trying to build Android app using GitHub Actions - don't understand how to use Environment Files in this circumstance</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Using Github Actions to Generate a CSV File and Send the CSV File to Box</t>
+          <t>My yaml file looks like this: -CODE-.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>We want to put those files in a box folder (box is like One Drive or Google Drive for those unfamiliar).</t>
+          <t>I guess it cannot do that.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>deploy.yml.</t>
+          <t>Index.tsx: -CODE-.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Why does Github actions rest API download artifacts by creating a temporary URL?</t>
+          <t>-CODE-</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Removing the lib that was returning an error (actually, the issue seems to happen with any lib, so that's the reason why I understand it's probably related to poetry and python).</t>
+          <t>Any ideas why this might occur?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>This fails, with Docker unable to find the .war file.</t>
+          <t>Removing the lib that was returning an error (actually, the issue seems to happen with any lib, so that's the reason why I understand it's probably related to poetry and python).</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>When the tests are done (and passing), the docker container keep running and it's not returning the result to GitHub Actions.</t>
+          <t>So far I have attempted: Retrieving the uploaded artifact (as seen in the code below) and unzipping it.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>I am trying to migrate from circle CI to GitHub actions and I am stuck at this step where I am trying to populate the version of a s3 file dynamically.</t>
+          <t>And my dockerfile: -CODE-.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>What are the alternatives to using GitHub Actions, I was thinking of running a custom action of -CODE- and setting up a local runner on my side.</t>
+          <t>When the tests are done (and passing), the docker container keep running and it's not returning the result to GitHub Actions.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-CODE-</t>
+          <t>I am trying to migrate from circle CI to GitHub actions and I am stuck at this step where I am trying to populate the version of a s3 file dynamically.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>I'm also wondering what the best workaround is.</t>
+          <t>-CODE-.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Using organization secrets in github actions is not an option here as we have +2500 repositories in our organization and our application has around 10 repositories only.</t>
+          <t>However, I get the following error when I run it on GitHub actions.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>I am trying to move a file from a folder to another through GitHub actions.</t>
+          <t>How would you automate all this with github actions.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The output is.</t>
+          <t>This could well be the problem but I'm not yet sure why.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Maybe it's something to do with the Docker version?</t>
+          <t>Makefile looks like this: -CODE-.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>The tests run and pass successfully but it never moves onto the next step in my workflow.</t>
+          <t>I am able use the scheduler in Actions workflow using schedule cron as below, But need to push an empty commit to the default branch at that frequency.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Will GitHub action's matrix strategy works for my case?</t>
+          <t>What would be the way to capture those errored log lines in job2, in order to take some actions with them?</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Is it even feasible for me to open the port 3000, connect to the external ip that I find from the "Check IP" step, and do that verification manually?</t>
+          <t>This is what I tried: -CODE-.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Github actions - Writing to GITHUB_ENV from a javascript file</t>
+          <t>When I click on the secret again to view the value, it shows nothing, and the field is completely blank.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>GitHub Actions restrict job with tag validation using if condition or github ref</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>I'm not sure if I am capturing the -CODE- properly or if there is a better way to do this.</t>
+          <t>and this line: -CODE- seems to give me the following error: -CODE-.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Suddenly can't connect without a private SSH key or password in GitHub actions</t>
+          <t>Nothing's worked so far and I'm not seeing any other resources that can help me solve this issue.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>This is my yml code.</t>
+          <t>So, what implementation for the -CODE- would be?</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-CODE-.</t>
+          <t>The problem is that the process takes about 30 minutes to complete as I have to clear the destination buckets before copying the data.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Does anyone have any examples that you might want to share?</t>
+          <t>Will GitHub action's matrix strategy works for my case?</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>With this command, I don't know which option I should use: -CODE-.</t>
+          <t>Whats the right way to deploy my spring boot applcation to my internal host machine?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>I'd like to have this script automatically run upon push of new firmware to a repository.</t>
+          <t>Does github actions support vnc enable?</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Is there a simple way to do this without some additional Workflow to monitor and dispatch things?</t>
+          <t>Why is my Github Actions job being skipped?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Do I maybe need to add an authToken or something else?</t>
+          <t>I'm not sure if I am capturing the -CODE- properly or if there is a better way to do this.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Also, is there another way to fetch all pages in Notion below a specified root page?</t>
+          <t>Does anyone have any examples that you might want to share?</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>and this is how my Dockerfile looks: -CODE-.</t>
+          <t>Is it normal for releases made by -CODE- to not trigger a -CODE- webhook event?</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>No dbt_project.yml found at expected path /home/dbt_project.yml".</t>
+          <t>Maybe because of GitHub Actions environment nature I should connect to some exieting network or specify it somehow?</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Why am I getting "Cannot find module" error on "tsc" command, only on GitHub Actions?</t>
+          <t>Could you please provide an example for me to refer?</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>How to use GitHub Actions Environment Secrets in open source pull request CI workflow?</t>
+          <t>I am using -LINK- and the unofficial Notion API for a Next.js project and am having lots of problems with it.</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>In each repo (main, dev fork) I have set up GitHub Secrets environments with the name -CODE-.</t>
+          <t>Also, is there another way to fetch all pages in Notion below a specified root page?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>But when the CI action runs in the main repo as part of a PR (from myself), the tests fail due to a missing -CODE- (as expected, based on the GitHub doc cited above).</t>
+          <t>GitHub Actions and AWS RDS connect and build error</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>This situation is unsatisfactory, because I can not even run CI on my own PRs in the main repo without them failing due to unavailable secrets.</t>
+          <t>My data comes from a file in the fixture folder: -CODE-.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>I'm facing an issue with running a build job through Github Actions because Error: -CODE- during the Setup Ruby job.</t>
+          <t>However, when running the same tests in a GitHub Actions workflow, pytest fails to recognize any tests and displays the error "collected 0 items" with exit code 5.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>I keep getting this error: -BLOCK-.</t>
+          <t>How do I verify if the -CODE- exists in the -CODE- block if I encounter -CODE-.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>dart tools error using build_runner on github actions</t>
+          <t>But when the CI action runs in the main repo as part of a PR (from myself), the tests fail due to a missing -CODE- (as expected, based on the GitHub doc cited above).</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>It appears that GitHub actions are blocking outbound port 587 to my SMTP server.</t>
+          <t>I'm facing an issue with running a build job through Github Actions because Error: -CODE- during the Setup Ruby job.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GitHub actions Liquibase update with port forwarding</t>
+          <t>-CODE-.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>What's the equivalent of GitLab's -CODE- keyword in GitHub Actions?</t>
+          <t>Another solution I am thinking of is to get all the operations from aws-actions/configure-aws-credentials + aws-actions/amazon-ecr-login and put them as a prepare_job mentioned in the docs for runners: -LINK-.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GitHub actions issue with .net framework nuget package</t>
+          <t>And the output in my Actions log is: -CODE-.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>My solution was to use Github actions to push any updates to a supported Azure DevOps Repo, but when I get the following error: hint: You have divergent branches and need to specify how to reconcile them.</t>
+          <t>But, this fails (-LINK- to logs): -CODE-.</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>I have my unittests in a top level -CODE- folder for my Python project that uses poetry (-LINK- to code).</t>
+          <t>Why does this fail in Github Actions but works fine locally?</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>The code works perfectly when executed locally on my Mac but encounters problems in the GitHub Actions environment.</t>
+          <t>While connecting to AWS and retrieving the audio as a pydub.AudioSegment works, accessing the metadata fails.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
